--- a/whiteBoxTest.xlsx
+++ b/whiteBoxTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf08e53fca354b17/semester6/Software Engineering 1/Software-Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{507A1B46-D155-44F0-9A0B-D846962CC4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA7D6E96-00D9-49C4-8E27-B0631663ADBF}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{507A1B46-D155-44F0-9A0B-D846962CC4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECE1606F-EB4D-4829-B8D8-FAF16B3BAFF9}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="6570" windowWidth="22935" windowHeight="16065" xr2:uid="{511EF143-4B11-410A-AA54-21F09124F911}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{511EF143-4B11-410A-AA54-21F09124F911}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
   <si>
     <t>Info.java isFree()</t>
   </si>
@@ -168,9 +168,6 @@
     <t>StartDate is after activity end</t>
   </si>
   <si>
-    <t>startDate or endDate is between activity start and end</t>
-  </si>
-  <si>
     <t>not 1, not 2, not 3, 4 true, 4a</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>id contains letter</t>
+  </si>
+  <si>
+    <t>startDate is between activity start and end</t>
+  </si>
+  <si>
+    <t>endDate is between activity start and end</t>
   </si>
 </sst>
 </file>
@@ -239,10 +242,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5FD904-0FF6-4164-922A-2A124A7BE0CC}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,23 +576,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -616,13 +619,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -649,20 +652,20 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -700,13 +703,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -744,20 +747,20 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -812,13 +815,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -867,20 +870,20 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -922,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -933,62 +936,62 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -996,97 +999,196 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
         <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1197,7 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/whiteBoxTest.xlsx
+++ b/whiteBoxTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf08e53fca354b17/semester6/Software Engineering 1/Software-Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{507A1B46-D155-44F0-9A0B-D846962CC4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECE1606F-EB4D-4829-B8D8-FAF16B3BAFF9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{507A1B46-D155-44F0-9A0B-D846962CC4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9473D263-C531-4874-9504-C4C755543C58}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{511EF143-4B11-410A-AA54-21F09124F911}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>Info.java isFree()</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>project is added to list</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
   </si>
   <si>
     <t>endDate is before startDate</t>
@@ -560,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5FD904-0FF6-4164-922A-2A124A7BE0CC}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -713,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -724,7 +718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -735,7 +729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -746,14 +740,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -775,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -785,14 +779,8 @@
       <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -803,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -814,7 +802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -825,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -895,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,7 +905,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,10 +913,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -980,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
@@ -991,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -1002,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -1013,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -1024,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -1056,7 +1044,7 @@
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1055,7 @@
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1066,7 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,7 +1077,7 @@
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,7 +1099,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -1141,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -1152,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
@@ -1163,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -1174,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
@@ -1185,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
